--- a/data/old/ruggerone_data_oct9.xlsx
+++ b/data/old/ruggerone_data_oct9.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ruggerone2/GregProjects/Jess Brandt Escapement Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\OneDrive - The University of South Dakota\USD\Github Projects\salmon_nutrients_contaminants\data\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE863F9-B8A8-6D48-B0F3-6FEBF035481F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CFE863F9-B8A8-6D48-B0F3-6FEBF035481F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{E75AC477-E2A1-4574-A16F-415EEA24E18F}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="43380" windowHeight="20120" xr2:uid="{528AE5F3-79DB-5847-8B70-00E7D13EFC3C}"/>
+    <workbookView minimized="1" xWindow="300" yWindow="456" windowWidth="43380" windowHeight="20124" xr2:uid="{528AE5F3-79DB-5847-8B70-00E7D13EFC3C}"/>
   </bookViews>
   <sheets>
     <sheet name="salmon escapement" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="179021" iterate="1" iterateCount="1000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -682,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>Pink salmon</t>
   </si>
@@ -736,12 +741,6 @@
   </si>
   <si>
     <t>The values below are before rounding.  I show these in case we want to lump areas more than shown above.  Rounding can then be applied to the new combined values. The rounded values are what USGS should report, if needed</t>
-  </si>
-  <si>
-    <t>ROUND(R112,2)</t>
-  </si>
-  <si>
-    <t>ROUND(D88,1)</t>
   </si>
 </sst>
 </file>
@@ -1411,24 +1410,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0F7DF2-6ECD-FF4C-BA11-232108B78706}">
-  <dimension ref="C10:AB151"/>
+  <dimension ref="C10:AD151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" topLeftCell="T61" workbookViewId="0">
+      <selection activeCell="AB83" sqref="AB83:AD83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.69921875" customWidth="1"/>
+    <col min="15" max="15" width="11.796875" customWidth="1"/>
+    <col min="16" max="16" width="15.796875" customWidth="1"/>
     <col min="17" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="19.5" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" customWidth="1"/>
+    <col min="22" max="22" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="3:28" ht="21">
@@ -1446,13 +1445,13 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="3:28" ht="19">
+    <row r="12" spans="3:28" ht="18">
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="14" spans="3:28" ht="19">
+    <row r="14" spans="3:28" ht="18">
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="33" spans="3:28">
+    <row r="33" spans="3:30">
       <c r="C33">
         <v>1969</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="3:28">
+    <row r="34" spans="3:30">
       <c r="C34">
         <v>1970</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="35" spans="3:28">
+    <row r="35" spans="3:30">
       <c r="C35">
         <v>1971</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="3:28">
+    <row r="36" spans="3:30">
       <c r="C36">
         <v>1972</v>
       </c>
@@ -2397,7 +2396,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="37" spans="3:28">
+    <row r="37" spans="3:30">
       <c r="C37">
         <v>1973</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="38" spans="3:28">
+    <row r="38" spans="3:30">
       <c r="C38">
         <v>1974</v>
       </c>
@@ -2477,7 +2476,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="39" spans="3:28">
+    <row r="39" spans="3:30">
       <c r="C39">
         <v>1975</v>
       </c>
@@ -2517,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="3:28">
+    <row r="40" spans="3:30">
       <c r="C40">
         <v>1976</v>
       </c>
@@ -2584,11 +2583,15 @@
         <v>1.34</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" ref="X40:AB40" si="0">ROUND(AB112,2)</f>
+        <f t="shared" ref="AB40" si="0">ROUND(AB112,2)</f>
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="41" spans="3:28">
+      <c r="AD40" s="7">
+        <f>SUM(D40:AB40)</f>
+        <v>78.999999999999986</v>
+      </c>
+    </row>
+    <row r="41" spans="3:30">
       <c r="C41">
         <v>1977</v>
       </c>
@@ -2655,11 +2658,15 @@
         <v>1.62</v>
       </c>
       <c r="AB41" s="15">
-        <f t="shared" ref="X41:AB41" si="1">ROUND(AB113,2)</f>
+        <f t="shared" ref="AB41" si="1">ROUND(AB113,2)</f>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="42" spans="3:28">
+      <c r="AD41" s="7">
+        <f t="shared" ref="AD41:AD79" si="2">SUM(D41:AB41)</f>
+        <v>67.889999999999986</v>
+      </c>
+    </row>
+    <row r="42" spans="3:30">
       <c r="C42">
         <v>1978</v>
       </c>
@@ -2726,11 +2733,15 @@
         <v>1.41</v>
       </c>
       <c r="AB42" s="15">
-        <f t="shared" ref="X42:AB42" si="2">ROUND(AB114,2)</f>
+        <f t="shared" ref="AB42" si="3">ROUND(AB114,2)</f>
         <v>0.23</v>
       </c>
-    </row>
-    <row r="43" spans="3:28">
+      <c r="AD42" s="7">
+        <f t="shared" si="2"/>
+        <v>97.56</v>
+      </c>
+    </row>
+    <row r="43" spans="3:30">
       <c r="C43">
         <v>1979</v>
       </c>
@@ -2797,11 +2808,15 @@
         <v>1.28</v>
       </c>
       <c r="AB43" s="15">
-        <f t="shared" ref="X43:AB43" si="3">ROUND(AB115,2)</f>
+        <f t="shared" ref="AB43" si="4">ROUND(AB115,2)</f>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="44" spans="3:28">
+      <c r="AD43" s="7">
+        <f t="shared" si="2"/>
+        <v>94.050000000000011</v>
+      </c>
+    </row>
+    <row r="44" spans="3:30">
       <c r="C44">
         <v>1980</v>
       </c>
@@ -2868,11 +2883,15 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" ref="X44:AB44" si="4">ROUND(AB116,2)</f>
+        <f t="shared" ref="AB44" si="5">ROUND(AB116,2)</f>
         <v>0.26</v>
       </c>
-    </row>
-    <row r="45" spans="3:28">
+      <c r="AD44" s="7">
+        <f t="shared" si="2"/>
+        <v>116.00000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="3:30">
       <c r="C45">
         <v>1981</v>
       </c>
@@ -2939,11 +2958,15 @@
         <v>1</v>
       </c>
       <c r="AB45" s="15">
-        <f t="shared" ref="X45:AB45" si="5">ROUND(AB117,2)</f>
+        <f t="shared" ref="AB45" si="6">ROUND(AB117,2)</f>
         <v>0.19</v>
       </c>
-    </row>
-    <row r="46" spans="3:28">
+      <c r="AD45" s="7">
+        <f t="shared" si="2"/>
+        <v>87.46</v>
+      </c>
+    </row>
+    <row r="46" spans="3:30">
       <c r="C46">
         <v>1982</v>
       </c>
@@ -3010,11 +3033,15 @@
         <v>1.04</v>
       </c>
       <c r="AB46" s="15">
-        <f t="shared" ref="X46:AB46" si="6">ROUND(AB118,2)</f>
+        <f t="shared" ref="AB46" si="7">ROUND(AB118,2)</f>
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="3:28">
+      <c r="AD46" s="7">
+        <f t="shared" si="2"/>
+        <v>88.410000000000011</v>
+      </c>
+    </row>
+    <row r="47" spans="3:30">
       <c r="C47">
         <v>1983</v>
       </c>
@@ -3081,11 +3108,15 @@
         <v>1.05</v>
       </c>
       <c r="AB47" s="15">
-        <f t="shared" ref="X47:AB47" si="7">ROUND(AB119,2)</f>
+        <f t="shared" ref="AB47" si="8">ROUND(AB119,2)</f>
         <v>0.31</v>
       </c>
-    </row>
-    <row r="48" spans="3:28">
+      <c r="AD47" s="7">
+        <f t="shared" si="2"/>
+        <v>95.029999999999987</v>
+      </c>
+    </row>
+    <row r="48" spans="3:30">
       <c r="C48">
         <v>1984</v>
       </c>
@@ -3152,11 +3183,15 @@
         <v>1.38</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="X48:AB48" si="8">ROUND(AB120,2)</f>
+        <f t="shared" ref="AB48" si="9">ROUND(AB120,2)</f>
         <v>0.43</v>
       </c>
-    </row>
-    <row r="49" spans="3:28">
+      <c r="AD48" s="7">
+        <f t="shared" si="2"/>
+        <v>114.49</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30">
       <c r="C49">
         <v>1985</v>
       </c>
@@ -3223,11 +3258,15 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AB49" s="15">
-        <f t="shared" ref="X49:AB49" si="9">ROUND(AB121,2)</f>
+        <f t="shared" ref="AB49" si="10">ROUND(AB121,2)</f>
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="50" spans="3:28">
+      <c r="AD49" s="7">
+        <f t="shared" si="2"/>
+        <v>134.06000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30">
       <c r="C50">
         <v>1986</v>
       </c>
@@ -3294,11 +3333,15 @@
         <v>1.26</v>
       </c>
       <c r="AB50" s="15">
-        <f t="shared" ref="X50:AB50" si="10">ROUND(AB122,2)</f>
+        <f t="shared" ref="AB50" si="11">ROUND(AB122,2)</f>
         <v>0.41</v>
       </c>
-    </row>
-    <row r="51" spans="3:28">
+      <c r="AD50" s="7">
+        <f t="shared" si="2"/>
+        <v>117.22999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30">
       <c r="C51">
         <v>1987</v>
       </c>
@@ -3365,11 +3408,15 @@
         <v>1.05</v>
       </c>
       <c r="AB51" s="15">
-        <f t="shared" ref="X51:AB51" si="11">ROUND(AB123,2)</f>
+        <f t="shared" ref="AB51" si="12">ROUND(AB123,2)</f>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="52" spans="3:28">
+      <c r="AD51" s="7">
+        <f t="shared" si="2"/>
+        <v>105.52999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30">
       <c r="C52">
         <v>1988</v>
       </c>
@@ -3436,11 +3483,15 @@
         <v>1.02</v>
       </c>
       <c r="AB52" s="15">
-        <f t="shared" ref="X52:AB52" si="12">ROUND(AB124,2)</f>
+        <f t="shared" ref="AB52" si="13">ROUND(AB124,2)</f>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="53" spans="3:28">
+      <c r="AD52" s="7">
+        <f t="shared" si="2"/>
+        <v>94.859999999999985</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30">
       <c r="C53">
         <v>1989</v>
       </c>
@@ -3507,11 +3558,15 @@
         <v>1.04</v>
       </c>
       <c r="AB53" s="15">
-        <f t="shared" ref="X53:AB53" si="13">ROUND(AB125,2)</f>
+        <f t="shared" ref="AB53" si="14">ROUND(AB125,2)</f>
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="3:28">
+      <c r="AD53" s="7">
+        <f t="shared" si="2"/>
+        <v>113.31</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30">
       <c r="C54">
         <v>1990</v>
       </c>
@@ -3578,11 +3633,15 @@
         <v>1.26</v>
       </c>
       <c r="AB54" s="15">
-        <f t="shared" ref="X54:AB54" si="14">ROUND(AB126,2)</f>
+        <f t="shared" ref="AB54" si="15">ROUND(AB126,2)</f>
         <v>0.27</v>
       </c>
-    </row>
-    <row r="55" spans="3:28">
+      <c r="AD54" s="7">
+        <f t="shared" si="2"/>
+        <v>112.86999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30">
       <c r="C55">
         <v>1991</v>
       </c>
@@ -3649,11 +3708,15 @@
         <v>1.19</v>
       </c>
       <c r="AB55" s="15">
-        <f t="shared" ref="X55:AB55" si="15">ROUND(AB127,2)</f>
+        <f t="shared" ref="AB55" si="16">ROUND(AB127,2)</f>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="56" spans="3:28">
+      <c r="AD55" s="7">
+        <f t="shared" si="2"/>
+        <v>128.24</v>
+      </c>
+    </row>
+    <row r="56" spans="3:30">
       <c r="C56">
         <v>1992</v>
       </c>
@@ -3720,11 +3783,15 @@
         <v>0.91</v>
       </c>
       <c r="AB56" s="15">
-        <f t="shared" ref="X56:AB56" si="16">ROUND(AB128,2)</f>
+        <f t="shared" ref="AB56" si="17">ROUND(AB128,2)</f>
         <v>0.27</v>
       </c>
-    </row>
-    <row r="57" spans="3:28">
+      <c r="AD56" s="7">
+        <f t="shared" si="2"/>
+        <v>109.33</v>
+      </c>
+    </row>
+    <row r="57" spans="3:30">
       <c r="C57">
         <v>1993</v>
       </c>
@@ -3791,11 +3858,15 @@
         <v>0.89</v>
       </c>
       <c r="AB57" s="15">
-        <f t="shared" ref="X57:AB57" si="17">ROUND(AB129,2)</f>
+        <f t="shared" ref="AB57" si="18">ROUND(AB129,2)</f>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="58" spans="3:28">
+      <c r="AD57" s="7">
+        <f t="shared" si="2"/>
+        <v>123.39999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30">
       <c r="C58">
         <v>1994</v>
       </c>
@@ -3862,11 +3933,15 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="AB58" s="15">
-        <f t="shared" ref="X58:AB58" si="18">ROUND(AB130,2)</f>
+        <f t="shared" ref="AB58" si="19">ROUND(AB130,2)</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="59" spans="3:28">
+      <c r="AD58" s="7">
+        <f t="shared" si="2"/>
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30">
       <c r="C59">
         <v>1995</v>
       </c>
@@ -3933,11 +4008,15 @@
         <v>0.96</v>
       </c>
       <c r="AB59" s="15">
-        <f t="shared" ref="X59:AB59" si="19">ROUND(AB131,2)</f>
+        <f t="shared" ref="AB59" si="20">ROUND(AB131,2)</f>
         <v>0.33</v>
       </c>
-    </row>
-    <row r="60" spans="3:28">
+      <c r="AD59" s="7">
+        <f t="shared" si="2"/>
+        <v>149.72999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30">
       <c r="C60">
         <v>1996</v>
       </c>
@@ -4004,11 +4083,15 @@
         <v>0.72</v>
       </c>
       <c r="AB60" s="15">
-        <f t="shared" ref="X60:AB60" si="20">ROUND(AB132,2)</f>
+        <f t="shared" ref="AB60" si="21">ROUND(AB132,2)</f>
         <v>0.35</v>
       </c>
-    </row>
-    <row r="61" spans="3:28">
+      <c r="AD60" s="7">
+        <f t="shared" si="2"/>
+        <v>153.02999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30">
       <c r="C61">
         <v>1997</v>
       </c>
@@ -4075,11 +4158,15 @@
         <v>0.73</v>
       </c>
       <c r="AB61" s="15">
-        <f t="shared" ref="X61:AB61" si="21">ROUND(AB133,2)</f>
+        <f t="shared" ref="AB61" si="22">ROUND(AB133,2)</f>
         <v>0.34</v>
       </c>
-    </row>
-    <row r="62" spans="3:28">
+      <c r="AD61" s="7">
+        <f t="shared" si="2"/>
+        <v>116.78</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30">
       <c r="C62">
         <v>1998</v>
       </c>
@@ -4146,11 +4233,15 @@
         <v>1.63</v>
       </c>
       <c r="AB62" s="15">
-        <f t="shared" ref="X62:AB62" si="22">ROUND(AB134,2)</f>
+        <f t="shared" ref="AB62" si="23">ROUND(AB134,2)</f>
         <v>0.51</v>
       </c>
-    </row>
-    <row r="63" spans="3:28">
+      <c r="AD62" s="7">
+        <f t="shared" si="2"/>
+        <v>138.09999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30">
       <c r="C63">
         <v>1999</v>
       </c>
@@ -4217,11 +4308,15 @@
         <v>1.32</v>
       </c>
       <c r="AB63" s="15">
-        <f t="shared" ref="X63:AB63" si="23">ROUND(AB135,2)</f>
+        <f t="shared" ref="AB63" si="24">ROUND(AB135,2)</f>
         <v>0.27</v>
       </c>
-    </row>
-    <row r="64" spans="3:28">
+      <c r="AD63" s="7">
+        <f t="shared" si="2"/>
+        <v>171.32000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30">
       <c r="C64">
         <v>2000</v>
       </c>
@@ -4288,11 +4383,15 @@
         <v>1.33</v>
       </c>
       <c r="AB64" s="15">
-        <f t="shared" ref="X64:AB64" si="24">ROUND(AB136,2)</f>
+        <f t="shared" ref="AB64" si="25">ROUND(AB136,2)</f>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="65" spans="3:28">
+      <c r="AD64" s="7">
+        <f t="shared" si="2"/>
+        <v>121.68000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="3:30">
       <c r="C65">
         <v>2001</v>
       </c>
@@ -4359,11 +4458,15 @@
         <v>2.04</v>
       </c>
       <c r="AB65" s="15">
-        <f t="shared" ref="X65:AB65" si="25">ROUND(AB137,2)</f>
+        <f t="shared" ref="AB65" si="26">ROUND(AB137,2)</f>
         <v>1.02</v>
       </c>
-    </row>
-    <row r="66" spans="3:28">
+      <c r="AD65" s="7">
+        <f t="shared" si="2"/>
+        <v>145.53</v>
+      </c>
+    </row>
+    <row r="66" spans="3:30">
       <c r="C66">
         <v>2002</v>
       </c>
@@ -4430,11 +4533,15 @@
         <v>1.84</v>
       </c>
       <c r="AB66" s="15">
-        <f t="shared" ref="X66:AB66" si="26">ROUND(AB138,2)</f>
+        <f t="shared" ref="AB66" si="27">ROUND(AB138,2)</f>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="67" spans="3:28">
+      <c r="AD66" s="7">
+        <f t="shared" si="2"/>
+        <v>145.69</v>
+      </c>
+    </row>
+    <row r="67" spans="3:30">
       <c r="C67">
         <v>2003</v>
       </c>
@@ -4501,11 +4608,15 @@
         <v>1.4</v>
       </c>
       <c r="AB67" s="15">
-        <f t="shared" ref="X67:AB67" si="27">ROUND(AB139,2)</f>
+        <f t="shared" ref="AB67" si="28">ROUND(AB139,2)</f>
         <v>0.98</v>
       </c>
-    </row>
-    <row r="68" spans="3:28">
+      <c r="AD67" s="7">
+        <f t="shared" si="2"/>
+        <v>165.19000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="3:30">
       <c r="C68">
         <v>2004</v>
       </c>
@@ -4572,11 +4683,15 @@
         <v>1.63</v>
       </c>
       <c r="AB68" s="15">
-        <f t="shared" ref="X68:AB68" si="28">ROUND(AB140,2)</f>
+        <f t="shared" ref="AB68" si="29">ROUND(AB140,2)</f>
         <v>0.99</v>
       </c>
-    </row>
-    <row r="69" spans="3:28">
+      <c r="AD68" s="7">
+        <f t="shared" si="2"/>
+        <v>151.38</v>
+      </c>
+    </row>
+    <row r="69" spans="3:30">
       <c r="C69">
         <v>2005</v>
       </c>
@@ -4643,11 +4758,15 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AB69" s="15">
-        <f t="shared" ref="X69:AB69" si="29">ROUND(AB141,2)</f>
+        <f t="shared" ref="AB69" si="30">ROUND(AB141,2)</f>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="70" spans="3:28">
+      <c r="AD69" s="7">
+        <f t="shared" si="2"/>
+        <v>184.98000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="3:30">
       <c r="C70">
         <v>2006</v>
       </c>
@@ -4714,11 +4833,15 @@
         <v>1.04</v>
       </c>
       <c r="AB70" s="15">
-        <f t="shared" ref="X70:AB70" si="30">ROUND(AB142,2)</f>
+        <f t="shared" ref="AB70" si="31">ROUND(AB142,2)</f>
         <v>0.31</v>
       </c>
-    </row>
-    <row r="71" spans="3:28">
+      <c r="AD70" s="7">
+        <f t="shared" si="2"/>
+        <v>107.14000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="3:30">
       <c r="C71">
         <v>2007</v>
       </c>
@@ -4785,11 +4908,15 @@
         <v>1.08</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" ref="X71:AB71" si="31">ROUND(AB143,2)</f>
+        <f t="shared" ref="AB71" si="32">ROUND(AB143,2)</f>
         <v>0.44</v>
       </c>
-    </row>
-    <row r="72" spans="3:28">
+      <c r="AD71" s="7">
+        <f t="shared" si="2"/>
+        <v>131.31000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="3:30">
       <c r="C72">
         <v>2008</v>
       </c>
@@ -4856,11 +4983,15 @@
         <v>0.91</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" ref="X72:AB72" si="32">ROUND(AB144,2)</f>
+        <f t="shared" ref="AB72" si="33">ROUND(AB144,2)</f>
         <v>0.37</v>
       </c>
-    </row>
-    <row r="73" spans="3:28">
+      <c r="AD72" s="7">
+        <f t="shared" si="2"/>
+        <v>84.769999999999968</v>
+      </c>
+    </row>
+    <row r="73" spans="3:30">
       <c r="C73">
         <v>2009</v>
       </c>
@@ -4927,11 +5058,15 @@
         <v>1.93</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" ref="X73:AB73" si="33">ROUND(AB145,2)</f>
+        <f t="shared" ref="AB73" si="34">ROUND(AB145,2)</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="74" spans="3:28">
+      <c r="AD73" s="7">
+        <f t="shared" si="2"/>
+        <v>120.98</v>
+      </c>
+    </row>
+    <row r="74" spans="3:30">
       <c r="C74">
         <v>2010</v>
       </c>
@@ -4998,11 +5133,15 @@
         <v>1.29</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" ref="X74:AB74" si="34">ROUND(AB146,2)</f>
+        <f t="shared" ref="AB74" si="35">ROUND(AB146,2)</f>
         <v>0.68</v>
       </c>
-    </row>
-    <row r="75" spans="3:28">
+      <c r="AD74" s="7">
+        <f t="shared" si="2"/>
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="75" spans="3:30">
       <c r="C75">
         <v>2011</v>
       </c>
@@ -5069,11 +5208,15 @@
         <v>1.39</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" ref="X75:AB75" si="35">ROUND(AB147,2)</f>
+        <f t="shared" ref="AB75" si="36">ROUND(AB147,2)</f>
         <v>0.77</v>
       </c>
-    </row>
-    <row r="76" spans="3:28">
+      <c r="AD75" s="7">
+        <f t="shared" si="2"/>
+        <v>140.72999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="3:30">
       <c r="C76">
         <v>2012</v>
       </c>
@@ -5140,11 +5283,15 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" ref="X76:AB76" si="36">ROUND(AB148,2)</f>
+        <f t="shared" ref="AB76" si="37">ROUND(AB148,2)</f>
         <v>0.61</v>
       </c>
-    </row>
-    <row r="77" spans="3:28">
+      <c r="AD76" s="7">
+        <f t="shared" si="2"/>
+        <v>95.17</v>
+      </c>
+    </row>
+    <row r="77" spans="3:30">
       <c r="C77">
         <v>2013</v>
       </c>
@@ -5211,11 +5358,15 @@
         <v>1.28</v>
       </c>
       <c r="AB77" s="15">
-        <f t="shared" ref="X77:AB77" si="37">ROUND(AB149,2)</f>
+        <f t="shared" ref="AB77" si="38">ROUND(AB149,2)</f>
         <v>0.59</v>
       </c>
-    </row>
-    <row r="78" spans="3:28">
+      <c r="AD77" s="7">
+        <f t="shared" si="2"/>
+        <v>177.20000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="3:30">
       <c r="C78">
         <v>2014</v>
       </c>
@@ -5282,11 +5433,15 @@
         <v>1.28</v>
       </c>
       <c r="AB78" s="15">
-        <f t="shared" ref="X78:AB78" si="38">ROUND(AB150,2)</f>
+        <f t="shared" ref="AB78" si="39">ROUND(AB150,2)</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="79" spans="3:28">
+      <c r="AD78" s="7">
+        <f t="shared" si="2"/>
+        <v>126.95000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="3:30">
       <c r="C79">
         <v>2015</v>
       </c>
@@ -5353,24 +5508,130 @@
         <v>1.28</v>
       </c>
       <c r="AB79" s="15">
-        <f t="shared" ref="X79:AB79" si="39">ROUND(AB151,2)</f>
+        <f t="shared" ref="AB79" si="40">ROUND(AB151,2)</f>
         <v>0.19</v>
       </c>
-    </row>
-    <row r="83" spans="3:28">
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="R83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" ht="19">
+      <c r="AD79" s="7">
+        <f t="shared" si="2"/>
+        <v>164.23</v>
+      </c>
+    </row>
+    <row r="83" spans="3:30">
+      <c r="D83" s="7">
+        <f>AVERAGE(D40:D79)</f>
+        <v>2.61</v>
+      </c>
+      <c r="E83" s="7">
+        <f t="shared" ref="E83:AD83" si="41">AVERAGE(E40:E79)</f>
+        <v>18.669999999999995</v>
+      </c>
+      <c r="F83" s="7">
+        <f t="shared" si="41"/>
+        <v>33.78</v>
+      </c>
+      <c r="G83" s="7">
+        <f t="shared" si="41"/>
+        <v>15.444999999999999</v>
+      </c>
+      <c r="H83" s="7" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I83" s="7">
+        <f t="shared" si="41"/>
+        <v>5.9750000000000005</v>
+      </c>
+      <c r="J83" s="7">
+        <f t="shared" si="41"/>
+        <v>2.9724999999999997</v>
+      </c>
+      <c r="K83" s="7">
+        <f t="shared" si="41"/>
+        <v>3.0149999999999997</v>
+      </c>
+      <c r="L83" s="7">
+        <f t="shared" si="41"/>
+        <v>6.6450000000000005</v>
+      </c>
+      <c r="M83" s="7" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N83" s="7">
+        <f t="shared" si="41"/>
+        <v>12.762499999999999</v>
+      </c>
+      <c r="O83" s="7">
+        <f t="shared" si="41"/>
+        <v>5.5025000000000004</v>
+      </c>
+      <c r="P83" s="7">
+        <f t="shared" si="41"/>
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="Q83" s="7" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R83" s="7">
+        <f t="shared" si="41"/>
+        <v>0.45874999999999994</v>
+      </c>
+      <c r="S83" s="7">
+        <f t="shared" si="41"/>
+        <v>8.2750000000000018E-2</v>
+      </c>
+      <c r="T83" s="7">
+        <f t="shared" si="41"/>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="U83" s="7">
+        <f t="shared" si="41"/>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="V83" s="7">
+        <f t="shared" si="41"/>
+        <v>0.78374999999999995</v>
+      </c>
+      <c r="W83" s="7" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X83" s="7">
+        <f t="shared" si="41"/>
+        <v>0.43525000000000019</v>
+      </c>
+      <c r="Y83" s="7">
+        <f t="shared" si="41"/>
+        <v>1.0769999999999995</v>
+      </c>
+      <c r="Z83" s="7">
+        <f t="shared" si="41"/>
+        <v>1.0837500000000002</v>
+      </c>
+      <c r="AA83" s="7">
+        <f t="shared" si="41"/>
+        <v>1.23675</v>
+      </c>
+      <c r="AB83" s="7">
+        <f t="shared" si="41"/>
+        <v>0.44074999999999998</v>
+      </c>
+      <c r="AC83" s="7" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD83" s="7">
+        <f t="shared" si="41"/>
+        <v>122.64274999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" ht="18">
       <c r="C84" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="3:28">
+    <row r="86" spans="3:30">
       <c r="D86" t="s">
         <v>0</v>
       </c>
@@ -5387,7 +5648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="3:28">
+    <row r="87" spans="3:30">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -5455,7 +5716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="3:28">
+    <row r="88" spans="3:30">
       <c r="C88">
         <v>1952</v>
       </c>
@@ -5495,7 +5756,7 @@
         <v>6.7486015155703889</v>
       </c>
     </row>
-    <row r="89" spans="3:28">
+    <row r="89" spans="3:30">
       <c r="C89">
         <v>1953</v>
       </c>
@@ -5535,7 +5796,7 @@
         <v>6.7486015155703889</v>
       </c>
     </row>
-    <row r="90" spans="3:28">
+    <row r="90" spans="3:30">
       <c r="C90">
         <v>1954</v>
       </c>
@@ -5575,7 +5836,7 @@
         <v>7.9880878530652701</v>
       </c>
     </row>
-    <row r="91" spans="3:28">
+    <row r="91" spans="3:30">
       <c r="C91">
         <v>1955</v>
       </c>
@@ -5615,7 +5876,7 @@
         <v>5.2101716600578696</v>
       </c>
     </row>
-    <row r="92" spans="3:28">
+    <row r="92" spans="3:30">
       <c r="C92">
         <v>1956</v>
       </c>
@@ -5655,7 +5916,7 @@
         <v>5.3257720603226968</v>
       </c>
     </row>
-    <row r="93" spans="3:28">
+    <row r="93" spans="3:30">
       <c r="C93">
         <v>1957</v>
       </c>
@@ -5695,7 +5956,7 @@
         <v>4.1131798651218308</v>
       </c>
     </row>
-    <row r="94" spans="3:28">
+    <row r="94" spans="3:30">
       <c r="C94">
         <v>1958</v>
       </c>
@@ -5735,7 +5996,7 @@
         <v>6.8899619847710198</v>
       </c>
     </row>
-    <row r="95" spans="3:28">
+    <row r="95" spans="3:30">
       <c r="C95">
         <v>1959</v>
       </c>
@@ -5775,7 +6036,7 @@
         <v>8.4917148828668445</v>
       </c>
     </row>
-    <row r="96" spans="3:28">
+    <row r="96" spans="3:30">
       <c r="C96">
         <v>1960</v>
       </c>
